--- a/Copia de Relacion de Productos -Pagina Web-1.xlsx
+++ b/Copia de Relacion de Productos -Pagina Web-1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="174">
   <si>
     <t>Soluciones de Infraestructura</t>
   </si>
@@ -463,13 +463,88 @@
   </si>
   <si>
     <t>Correo 3</t>
+  </si>
+  <si>
+    <t>Rackeables</t>
+  </si>
+  <si>
+    <t>Torre</t>
+  </si>
+  <si>
+    <t>cinta</t>
+  </si>
+  <si>
+    <t>tinta</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>matriz</t>
+  </si>
+  <si>
+    <t>ploter</t>
+  </si>
+  <si>
+    <t>Mid Tower</t>
+  </si>
+  <si>
+    <t>Full Towe</t>
+  </si>
+  <si>
+    <t>Mini Tower</t>
+  </si>
+  <si>
+    <t>Slim Line Case</t>
+  </si>
+  <si>
+    <t>Small Form Factor</t>
+  </si>
+  <si>
+    <t>WORKSTATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disco </t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Router </t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Hub</t>
+  </si>
+  <si>
+    <t>Router Administradble</t>
+  </si>
+  <si>
+    <t>Switch Administrable</t>
+  </si>
+  <si>
+    <t>VoIP</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>Accesorios</t>
+  </si>
+  <si>
+    <t>gabinetes</t>
+  </si>
+  <si>
+    <t>lacer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +622,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -575,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,6 +672,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -891,753 +977,960 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G89"/>
+  <dimension ref="A3:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="5.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D17" s="2">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="D21" s="2">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="22" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
+      <c r="D23" s="2">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="2" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D19" s="2" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D20" s="2" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="2">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D22" s="2" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="2" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="2">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D24" s="2" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="3" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="3" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="3" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="10" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F63" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="4" t="s">
+      <c r="G63" s="8"/>
+      <c r="H63" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D52" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C56" s="1" t="s">
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="F64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D57" s="2" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D58" s="2" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D59" s="2" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D60" s="2" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G68" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D61" s="2" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G69" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C62" s="1" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F70" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D63" s="2" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D64" s="2" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F74" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C67" s="1" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="F75" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D68" s="2" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D69" s="2" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G77" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D70" s="2" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G78" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D71" s="2" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D72" s="2" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D73" s="2" t="s">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C75" s="1" t="s">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D76" s="2" t="s">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D77" s="2" t="s">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D78" s="2" t="s">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G86" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D79" s="2" t="s">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D80" s="2" t="s">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C82" s="1" t="s">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F90" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D83" s="2" t="s">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D84" s="2" t="s">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D85" s="2" t="s">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C87" s="1" t="s">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F95" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D88" s="2" t="s">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="H96" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D89" s="2" t="s">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E9" r:id="rId5"/>
-    <hyperlink ref="E11" r:id="rId6"/>
-    <hyperlink ref="E14" r:id="rId7"/>
-    <hyperlink ref="E10" r:id="rId8"/>
-    <hyperlink ref="E12" r:id="rId9"/>
-    <hyperlink ref="E15" r:id="rId10"/>
-    <hyperlink ref="E17" r:id="rId11"/>
-    <hyperlink ref="E18" r:id="rId12"/>
-    <hyperlink ref="E19" r:id="rId13"/>
-    <hyperlink ref="E13" r:id="rId14"/>
-    <hyperlink ref="E29" r:id="rId15"/>
-    <hyperlink ref="E27" r:id="rId16"/>
-    <hyperlink ref="E28" r:id="rId17"/>
-    <hyperlink ref="E30" r:id="rId18"/>
-    <hyperlink ref="E34" r:id="rId19"/>
-    <hyperlink ref="E35" r:id="rId20"/>
-    <hyperlink ref="E36" r:id="rId21"/>
-    <hyperlink ref="E37" r:id="rId22"/>
-    <hyperlink ref="E38" r:id="rId23"/>
-    <hyperlink ref="E33" r:id="rId24"/>
-    <hyperlink ref="E39" r:id="rId25"/>
-    <hyperlink ref="E42" r:id="rId26"/>
-    <hyperlink ref="E43" r:id="rId27"/>
-    <hyperlink ref="E45" r:id="rId28"/>
-    <hyperlink ref="E46" r:id="rId29"/>
-    <hyperlink ref="E41" r:id="rId30"/>
-    <hyperlink ref="E44" r:id="rId31"/>
-    <hyperlink ref="E48" r:id="rId32"/>
-    <hyperlink ref="E49" r:id="rId33"/>
-    <hyperlink ref="E50" r:id="rId34"/>
-    <hyperlink ref="E51" r:id="rId35"/>
-    <hyperlink ref="E52" r:id="rId36"/>
-    <hyperlink ref="E53" r:id="rId37"/>
-    <hyperlink ref="E56" r:id="rId38"/>
-    <hyperlink ref="E59" r:id="rId39"/>
-    <hyperlink ref="E60" r:id="rId40"/>
-    <hyperlink ref="E61" r:id="rId41"/>
-    <hyperlink ref="E57" r:id="rId42"/>
-    <hyperlink ref="E58" r:id="rId43"/>
-    <hyperlink ref="E64" r:id="rId44"/>
-    <hyperlink ref="E63" r:id="rId45"/>
-    <hyperlink ref="G56" r:id="rId46"/>
-    <hyperlink ref="E68" r:id="rId47"/>
-    <hyperlink ref="E72" r:id="rId48"/>
-    <hyperlink ref="E71" r:id="rId49"/>
-    <hyperlink ref="E70" r:id="rId50"/>
-    <hyperlink ref="E69" r:id="rId51"/>
-    <hyperlink ref="E73" r:id="rId52"/>
-    <hyperlink ref="E75" r:id="rId53" location="axzz227sC3Sfy"/>
-    <hyperlink ref="E76" r:id="rId54"/>
-    <hyperlink ref="E77" r:id="rId55"/>
-    <hyperlink ref="E78" r:id="rId56"/>
-    <hyperlink ref="E79" r:id="rId57"/>
-    <hyperlink ref="E80" r:id="rId58"/>
-    <hyperlink ref="E82" r:id="rId59"/>
-    <hyperlink ref="E83" r:id="rId60"/>
-    <hyperlink ref="E84" r:id="rId61"/>
-    <hyperlink ref="E85" r:id="rId62"/>
-    <hyperlink ref="E88" r:id="rId63"/>
-    <hyperlink ref="E89" r:id="rId64"/>
-    <hyperlink ref="E87" r:id="rId65"/>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H8" r:id="rId4"/>
+    <hyperlink ref="H9" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H17" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="H15" r:id="rId9"/>
+    <hyperlink ref="H21" r:id="rId10"/>
+    <hyperlink ref="H23" r:id="rId11"/>
+    <hyperlink ref="H25" r:id="rId12"/>
+    <hyperlink ref="H27" r:id="rId13"/>
+    <hyperlink ref="H16" r:id="rId14"/>
+    <hyperlink ref="H37" r:id="rId15"/>
+    <hyperlink ref="H35" r:id="rId16"/>
+    <hyperlink ref="H36" r:id="rId17"/>
+    <hyperlink ref="H38" r:id="rId18"/>
+    <hyperlink ref="H42" r:id="rId19"/>
+    <hyperlink ref="H43" r:id="rId20"/>
+    <hyperlink ref="H44" r:id="rId21"/>
+    <hyperlink ref="H45" r:id="rId22"/>
+    <hyperlink ref="H46" r:id="rId23"/>
+    <hyperlink ref="H41" r:id="rId24"/>
+    <hyperlink ref="H47" r:id="rId25"/>
+    <hyperlink ref="H50" r:id="rId26"/>
+    <hyperlink ref="H51" r:id="rId27"/>
+    <hyperlink ref="H53" r:id="rId28"/>
+    <hyperlink ref="H54" r:id="rId29"/>
+    <hyperlink ref="H49" r:id="rId30"/>
+    <hyperlink ref="H52" r:id="rId31"/>
+    <hyperlink ref="H56" r:id="rId32"/>
+    <hyperlink ref="H57" r:id="rId33"/>
+    <hyperlink ref="H58" r:id="rId34"/>
+    <hyperlink ref="H59" r:id="rId35"/>
+    <hyperlink ref="H60" r:id="rId36"/>
+    <hyperlink ref="H61" r:id="rId37"/>
+    <hyperlink ref="H64" r:id="rId38"/>
+    <hyperlink ref="H67" r:id="rId39"/>
+    <hyperlink ref="H68" r:id="rId40"/>
+    <hyperlink ref="H69" r:id="rId41"/>
+    <hyperlink ref="H65" r:id="rId42"/>
+    <hyperlink ref="H66" r:id="rId43"/>
+    <hyperlink ref="H72" r:id="rId44"/>
+    <hyperlink ref="H71" r:id="rId45"/>
+    <hyperlink ref="J64" r:id="rId46"/>
+    <hyperlink ref="H76" r:id="rId47"/>
+    <hyperlink ref="H80" r:id="rId48"/>
+    <hyperlink ref="H79" r:id="rId49"/>
+    <hyperlink ref="H78" r:id="rId50"/>
+    <hyperlink ref="H77" r:id="rId51"/>
+    <hyperlink ref="H81" r:id="rId52"/>
+    <hyperlink ref="H83" r:id="rId53" location="axzz227sC3Sfy"/>
+    <hyperlink ref="H84" r:id="rId54"/>
+    <hyperlink ref="H85" r:id="rId55"/>
+    <hyperlink ref="H86" r:id="rId56"/>
+    <hyperlink ref="H87" r:id="rId57"/>
+    <hyperlink ref="H88" r:id="rId58"/>
+    <hyperlink ref="H90" r:id="rId59"/>
+    <hyperlink ref="H91" r:id="rId60"/>
+    <hyperlink ref="H92" r:id="rId61"/>
+    <hyperlink ref="H93" r:id="rId62"/>
+    <hyperlink ref="H96" r:id="rId63"/>
+    <hyperlink ref="H97" r:id="rId64"/>
+    <hyperlink ref="H95" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>

--- a/Copia de Relacion de Productos -Pagina Web-1.xlsx
+++ b/Copia de Relacion de Productos -Pagina Web-1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="179">
   <si>
     <t>Soluciones de Infraestructura</t>
   </si>
@@ -538,6 +538,21 @@
   </si>
   <si>
     <t>lacer</t>
+  </si>
+  <si>
+    <t>licencias</t>
+  </si>
+  <si>
+    <t>EMC</t>
+  </si>
+  <si>
+    <t>LENOVO</t>
+  </si>
+  <si>
+    <t>TOSHIBA</t>
+  </si>
+  <si>
+    <t>Okidata</t>
   </si>
 </sst>
 </file>
@@ -658,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -675,6 +690,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -977,21 +993,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J97"/>
+  <dimension ref="A3:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
     <col min="8" max="8" width="68.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -1005,10 +1020,6 @@
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="8"/>
       <c r="H3" s="5" t="s">
         <v>146</v>
       </c>
@@ -1020,931 +1031,1114 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="2">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
+      <c r="G8" t="s">
+        <v>177</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>156</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D13" s="2">
+      <c r="F13" s="13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="F14" s="13"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="3" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="H17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="2">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>155</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="D21" s="2">
+      <c r="F21" s="2"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
         <v>16</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="E22" s="2"/>
-    </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
         <v>6</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>17</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="2">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="H28" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="H29" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
         <v>23</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="F30" s="2"/>
+      <c r="H30" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="2" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+      <c r="H31" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="2">
         <v>24</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="2">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="F32" s="2"/>
+      <c r="H32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+      <c r="H33" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2">
         <v>25</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>8</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="E36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="H36" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="3" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="3" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="3" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="4" t="s">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="F41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="F42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="3" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="3" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="3" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="3" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="3" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" s="3" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="2"/>
+      <c r="H48" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="3" t="s">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="3" t="s">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="3" t="s">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" s="3" t="s">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="3" t="s">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" s="3" t="s">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="2"/>
+      <c r="H55" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H56" s="3" t="s">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H57" s="3" t="s">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H58" s="3" t="s">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" s="3" t="s">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H60" s="3" t="s">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H61" s="3" t="s">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="2"/>
+      <c r="H62" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F63" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="4" t="s">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="2"/>
+      <c r="H64" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="F64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H64" s="3" t="s">
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="F65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H65" s="3" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G67" s="2" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F67" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G68" s="2" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G69" s="2" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F69" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F70" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G71" s="2" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F70" s="2"/>
+      <c r="H70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H71" s="3" t="s">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G72" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H72" s="3" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F73" s="2"/>
+      <c r="H73" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F74" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="6" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F75" s="2"/>
+      <c r="H75" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="F75" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G76" s="2" t="s">
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="F76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H76" s="3" t="s">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G77" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H77" s="3" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G78" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H78" s="3" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G79" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H79" s="3" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G80" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H80" s="3" t="s">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G81" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H81" s="3" t="s">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F82" s="2"/>
+      <c r="H82" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="83" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F83" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H83" s="3" t="s">
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G84" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H84" s="3" t="s">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G85" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H85" s="3" t="s">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G86" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H86" s="3" t="s">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F87" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G87" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H87" s="3" t="s">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G88" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H88" s="3" t="s">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F89" s="2"/>
+      <c r="H89" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F90" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H90" s="3" t="s">
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G91" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H91" s="3" t="s">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H92" s="3" t="s">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G93" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H93" s="3" t="s">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F94" s="2"/>
+      <c r="H94" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="95" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H95" s="3" t="s">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F96" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G96" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H96" s="3" t="s">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H97" s="3" t="s">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F98" s="2"/>
+      <c r="H98" s="3" t="s">
         <v>140</v>
       </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F100" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1"/>
-    <hyperlink ref="H6" r:id="rId2"/>
-    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
     <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="H9" r:id="rId5"/>
-    <hyperlink ref="H14" r:id="rId6"/>
-    <hyperlink ref="H17" r:id="rId7"/>
+    <hyperlink ref="H10" r:id="rId5"/>
+    <hyperlink ref="H15" r:id="rId6"/>
+    <hyperlink ref="H18" r:id="rId7"/>
     <hyperlink ref="H11" r:id="rId8"/>
-    <hyperlink ref="H15" r:id="rId9"/>
-    <hyperlink ref="H21" r:id="rId10"/>
-    <hyperlink ref="H23" r:id="rId11"/>
-    <hyperlink ref="H25" r:id="rId12"/>
-    <hyperlink ref="H27" r:id="rId13"/>
-    <hyperlink ref="H16" r:id="rId14"/>
-    <hyperlink ref="H37" r:id="rId15"/>
-    <hyperlink ref="H35" r:id="rId16"/>
-    <hyperlink ref="H36" r:id="rId17"/>
-    <hyperlink ref="H38" r:id="rId18"/>
-    <hyperlink ref="H42" r:id="rId19"/>
-    <hyperlink ref="H43" r:id="rId20"/>
-    <hyperlink ref="H44" r:id="rId21"/>
-    <hyperlink ref="H45" r:id="rId22"/>
-    <hyperlink ref="H46" r:id="rId23"/>
-    <hyperlink ref="H41" r:id="rId24"/>
-    <hyperlink ref="H47" r:id="rId25"/>
-    <hyperlink ref="H50" r:id="rId26"/>
-    <hyperlink ref="H51" r:id="rId27"/>
-    <hyperlink ref="H53" r:id="rId28"/>
-    <hyperlink ref="H54" r:id="rId29"/>
-    <hyperlink ref="H49" r:id="rId30"/>
-    <hyperlink ref="H52" r:id="rId31"/>
-    <hyperlink ref="H56" r:id="rId32"/>
-    <hyperlink ref="H57" r:id="rId33"/>
-    <hyperlink ref="H58" r:id="rId34"/>
-    <hyperlink ref="H59" r:id="rId35"/>
-    <hyperlink ref="H60" r:id="rId36"/>
-    <hyperlink ref="H61" r:id="rId37"/>
-    <hyperlink ref="H64" r:id="rId38"/>
-    <hyperlink ref="H67" r:id="rId39"/>
-    <hyperlink ref="H68" r:id="rId40"/>
-    <hyperlink ref="H69" r:id="rId41"/>
-    <hyperlink ref="H65" r:id="rId42"/>
-    <hyperlink ref="H66" r:id="rId43"/>
-    <hyperlink ref="H72" r:id="rId44"/>
-    <hyperlink ref="H71" r:id="rId45"/>
-    <hyperlink ref="J64" r:id="rId46"/>
-    <hyperlink ref="H76" r:id="rId47"/>
-    <hyperlink ref="H80" r:id="rId48"/>
-    <hyperlink ref="H79" r:id="rId49"/>
-    <hyperlink ref="H78" r:id="rId50"/>
-    <hyperlink ref="H77" r:id="rId51"/>
-    <hyperlink ref="H81" r:id="rId52"/>
-    <hyperlink ref="H83" r:id="rId53" location="axzz227sC3Sfy"/>
-    <hyperlink ref="H84" r:id="rId54"/>
-    <hyperlink ref="H85" r:id="rId55"/>
-    <hyperlink ref="H86" r:id="rId56"/>
-    <hyperlink ref="H87" r:id="rId57"/>
-    <hyperlink ref="H88" r:id="rId58"/>
-    <hyperlink ref="H90" r:id="rId59"/>
-    <hyperlink ref="H91" r:id="rId60"/>
-    <hyperlink ref="H92" r:id="rId61"/>
-    <hyperlink ref="H93" r:id="rId62"/>
-    <hyperlink ref="H96" r:id="rId63"/>
-    <hyperlink ref="H97" r:id="rId64"/>
-    <hyperlink ref="H95" r:id="rId65"/>
+    <hyperlink ref="H16" r:id="rId9"/>
+    <hyperlink ref="H22" r:id="rId10"/>
+    <hyperlink ref="H24" r:id="rId11"/>
+    <hyperlink ref="H26" r:id="rId12"/>
+    <hyperlink ref="H28" r:id="rId13"/>
+    <hyperlink ref="H17" r:id="rId14"/>
+    <hyperlink ref="H38" r:id="rId15"/>
+    <hyperlink ref="H36" r:id="rId16"/>
+    <hyperlink ref="H37" r:id="rId17"/>
+    <hyperlink ref="H39" r:id="rId18"/>
+    <hyperlink ref="H43" r:id="rId19"/>
+    <hyperlink ref="H44" r:id="rId20"/>
+    <hyperlink ref="H45" r:id="rId21"/>
+    <hyperlink ref="H46" r:id="rId22"/>
+    <hyperlink ref="H47" r:id="rId23"/>
+    <hyperlink ref="H42" r:id="rId24"/>
+    <hyperlink ref="H48" r:id="rId25"/>
+    <hyperlink ref="H51" r:id="rId26"/>
+    <hyperlink ref="H52" r:id="rId27"/>
+    <hyperlink ref="H54" r:id="rId28"/>
+    <hyperlink ref="H55" r:id="rId29"/>
+    <hyperlink ref="H50" r:id="rId30"/>
+    <hyperlink ref="H53" r:id="rId31"/>
+    <hyperlink ref="H57" r:id="rId32"/>
+    <hyperlink ref="H58" r:id="rId33"/>
+    <hyperlink ref="H59" r:id="rId34"/>
+    <hyperlink ref="H60" r:id="rId35"/>
+    <hyperlink ref="H61" r:id="rId36"/>
+    <hyperlink ref="H62" r:id="rId37"/>
+    <hyperlink ref="H65" r:id="rId38"/>
+    <hyperlink ref="H68" r:id="rId39"/>
+    <hyperlink ref="H69" r:id="rId40"/>
+    <hyperlink ref="H70" r:id="rId41"/>
+    <hyperlink ref="H66" r:id="rId42"/>
+    <hyperlink ref="H67" r:id="rId43"/>
+    <hyperlink ref="H73" r:id="rId44"/>
+    <hyperlink ref="H72" r:id="rId45"/>
+    <hyperlink ref="J65" r:id="rId46"/>
+    <hyperlink ref="H77" r:id="rId47"/>
+    <hyperlink ref="H81" r:id="rId48"/>
+    <hyperlink ref="H80" r:id="rId49"/>
+    <hyperlink ref="H79" r:id="rId50"/>
+    <hyperlink ref="H78" r:id="rId51"/>
+    <hyperlink ref="H82" r:id="rId52"/>
+    <hyperlink ref="H84" r:id="rId53" location="axzz227sC3Sfy"/>
+    <hyperlink ref="H85" r:id="rId54"/>
+    <hyperlink ref="H86" r:id="rId55"/>
+    <hyperlink ref="H87" r:id="rId56"/>
+    <hyperlink ref="H88" r:id="rId57"/>
+    <hyperlink ref="H89" r:id="rId58"/>
+    <hyperlink ref="H91" r:id="rId59"/>
+    <hyperlink ref="H92" r:id="rId60"/>
+    <hyperlink ref="H93" r:id="rId61"/>
+    <hyperlink ref="H94" r:id="rId62"/>
+    <hyperlink ref="H97" r:id="rId63"/>
+    <hyperlink ref="H98" r:id="rId64"/>
+    <hyperlink ref="H96" r:id="rId65"/>
+    <hyperlink ref="H33" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
